--- a/AndroidSelendroidPOC/src/main/java/com/qa/TesData/Untitledspreadsheet.xlsx
+++ b/AndroidSelendroidPOC/src/main/java/com/qa/TesData/Untitledspreadsheet.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="TestData" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="ConfigData" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Parameter</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -28,6 +32,12 @@
     <t>Ishan</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CapabilityType.BROWSER_NAME</t>
+  </si>
+  <si>
     <t>ishansharma16@gmail.com</t>
   </si>
   <si>
@@ -44,13 +54,40 @@
   </si>
   <si>
     <t>ishan@456</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>platformVersion</t>
+  </si>
+  <si>
+    <t>deviceName</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>platformName</t>
+  </si>
+  <si>
+    <t>appPackage</t>
+  </si>
+  <si>
+    <t>io.selendroid.testapp</t>
+  </si>
+  <si>
+    <t>appActivity</t>
+  </si>
+  <si>
+    <t>io.selendroid.testapp.HomeScreenActivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -60,8 +97,12 @@
       <b/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +113,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF66"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,15 +128,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -100,6 +156,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -121,41 +181,115 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="42.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
